--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 8.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 8.xlsx_with_dialog_acts.xlsx
@@ -1083,12 +1083,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1407,12 +1407,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1735,12 +1735,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1879,12 +1879,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2023,12 +2023,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2099,12 +2099,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2135,12 +2135,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2171,12 +2171,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2279,12 +2279,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2967,12 +2967,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3039,12 +3039,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3363,12 +3363,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3651,12 +3651,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3687,12 +3687,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4191,12 +4191,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4587,12 +4587,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4947,12 +4947,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5739,12 +5739,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5847,12 +5847,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6027,12 +6027,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6315,12 +6315,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6499,12 +6499,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6751,12 +6751,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
